--- a/DataTable/GlobalCfg.xlsx
+++ b/DataTable/GlobalCfg.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>键</t>
   </si>
@@ -35,17 +48,59 @@
   </si>
   <si>
     <t>Long值</t>
+  </si>
+  <si>
+    <t>StoreAd1GoldCount</t>
+  </si>
+  <si>
+    <t>商店第1次广告金币数量</t>
+  </si>
+  <si>
+    <t>StoreAd2GoldCount</t>
+  </si>
+  <si>
+    <t>商店第2次广告金币数量</t>
+  </si>
+  <si>
+    <t>StoreAd3GoldCount</t>
+  </si>
+  <si>
+    <t>商店第3次广告金币数量</t>
+  </si>
+  <si>
+    <t>StoreAd4GoldCount</t>
+  </si>
+  <si>
+    <t>商店第4次广告金币数量</t>
+  </si>
+  <si>
+    <t>CompleteLevelGoldCount</t>
+  </si>
+  <si>
+    <t>完成关卡金币数量</t>
+  </si>
+  <si>
+    <t>BoxGoldCount</t>
+  </si>
+  <si>
+    <t>宝箱金币数量</t>
+  </si>
+  <si>
+    <t>CompleteLevelAdGoldCount</t>
+  </si>
+  <si>
+    <t>完成关卡看广告金币数量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -530,19 +585,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,7 +1056,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1038,28 +1093,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="2"/>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="5:5">
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="3:3">
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="3:3">
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="2"/>
+      <c r="D8">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="2"/>
